--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Zenker's diverticulum.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Zenker's diverticulum.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are characteristic of CREST syndrome and are not typically seen in Zenker's diverticulum.</t>
+          <t>Type 2 Achalasia in CREST syndrome often presents with progressive difficulty swallowing both solids and liquids due to esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Presence of halitosis (bad breath)</t>
+          <t>Regurgitation of undigested food</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Halitosis is a common symptom of Zenker's diverticulum due to food stagnation, which is not typical in CREST syndrome.</t>
+          <t>Zenker's diverticulum often presents with regurgitation of undigested food due to the outpouching in the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of esophageal dysmotility symptoms, such as regurgitation and difficulty swallowing solids</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysmotility is a hallmark of Type 2 Achalasia associated with CREST syndrome, while Zenker's diverticulum typically presents with different swallowing difficulties.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, which is not associated with Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of regurgitation of undigested food</t>
+          <t>Halitosis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regurgitation of undigested food is more characteristic of Zenker's diverticulum due to the diverticulum's nature, unlike the esophageal dysmotility seen in CREST syndrome.</t>
+          <t>Bad breath is a common symptom of Zenker's diverticulum due to food retention in the diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of Raynaud's phenomenon</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome and is not associated with Zenker's diverticulum.</t>
+          <t>Sclerodactyly, or thickening and tightening of the skin on the fingers, is indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Older age at symptom onset</t>
+          <t>Coughing or choking on swallowing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zenker's diverticulum typically presents in older adults, while CREST syndrome often presents in middle-aged women.</t>
+          <t>Coughing or choking during swallowing is more indicative of Zenker's diverticulum due to the mechanical obstruction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onset of symptoms in middle-aged women</t>
+          <t>History of esophageal reflux</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CREST syndrome is more prevalent in middle-aged women, whereas Zenker's diverticulum can occur in older adults regardless of gender.</t>
+          <t>Esophageal reflux is more commonly associated with CREST syndrome due to esophageal involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Coughing or choking episodes during eating</t>
+          <t>Neck mass or gurgling in the neck</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These episodes are more common in Zenker's diverticulum due to the diverticulum's obstruction of the esophagus.</t>
+          <t>A palpable neck mass or gurgling sound is characteristic of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal reflux or heartburn</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux is more common in patients with Type 2 Achalasia due to esophageal obstruction, unlike Zenker's diverticulum.</t>
+          <t>Telangiectasia, or small dilated blood vessels, is a feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Presence of a palpable neck mass</t>
+          <t>Dysphagia primarily for solids</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A palpable neck mass can indicate Zenker's diverticulum, which is not a feature of CREST syndrome.</t>
+          <t>Dysphagia primarily for solids is more typical of Zenker's diverticulum due to the physical obstruction.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a common skin manifestation of CREST syndrome, which is not associated with Zenker's diverticulum.</t>
+          <t>Scleroderma is a component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of dysphagia primarily for solids</t>
+          <t>History of dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dysphagia for solids is more characteristic of Zenker's diverticulum due to obstruction, while CREST syndrome typically presents with dysphagia for both solids and liquids.</t>
+          <t>Dysphagia for solids and liquids is more characteristic of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and is not typically seen in Zenker's diverticulum.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of halitosis (bad breath)</t>
+          <t>History of regurgitation of undigested food</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Halitosis is often reported in Zenker's diverticulum due to food stagnation, which is not a common symptom in CREST syndrome.</t>
+          <t>Regurgitation of undigested food is a classic symptom of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of esophageal dysmotility</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a complication of CREST syndrome, while it is not a feature of Zenker's diverticulum.</t>
+          <t>Esophageal dysmotility is a key feature of Type 2 Achalasia in CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of aspiration pneumonia</t>
+          <t>History of chronic cough</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aspiration pneumonia can occur due to food aspiration from Zenker's diverticulum, while it is less common in CREST syndrome.</t>
+          <t>Chronic cough can be associated with Zenker's diverticulum due to aspiration.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of esophageal motility disorders</t>
+          <t>Current use of calcium channel blockers</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia is characterized by esophageal motility issues, which are more specific to CREST syndrome than Zenker's diverticulum.</t>
+          <t>Calcium channel blockers are often used to manage Raynaud's phenomenon in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of neck mass or swelling</t>
+          <t>History of halitosis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A neck mass may develop from Zenker's diverticulum, which is not a feature of CREST syndrome.</t>
+          <t>Halitosis is often associated with Zenker's diverticulum due to food retention.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal reflux disease (GERD)</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERD can occur in CREST syndrome due to esophageal dysmotility, whereas it is less common in Zenker's diverticulum.</t>
+          <t>Telangiectasia is a component of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of previous diverticulectomy</t>
+          <t>History of neck mass</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Previous surgical intervention for Zenker's diverticulum is specific to that condition and not applicable to CREST syndrome.</t>
+          <t>A neck mass can be a sign of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with autoimmune conditions, suggesting a genetic predisposition.</t>
+          <t>CREST syndrome is an autoimmune condition and may have a genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of chronic cough or aspiration</t>
+          <t>No significant family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Zenker's diverticulum often leads to aspiration due to food trapping, which is less common in CREST syndrome.</t>
+          <t>Zenker's diverticulum is not associated with autoimmune diseases, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly or skin changes</t>
+          <t>History of Raynaud's phenomenon in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are a hallmark of CREST syndrome, indicating a higher likelihood of this diagnosis.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and may indicate a familial tendency.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Older age of onset</t>
+          <t>Family history of esophageal diverticula</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Zenker's diverticulum typically occurs in older adults, distinguishing it from CREST syndrome.</t>
+          <t>Zenker's diverticulum may have a familial component related to structural esophageal issues.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain occupations may increase the risk of autoimmune diseases, including CREST syndrome.</t>
+          <t>Scleroderma is closely related to CREST syndrome and may suggest a genetic link.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of significant weight loss due to dysphagia</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Weight loss from swallowing difficulties is more characteristic of Zenker's diverticulum.</t>
+          <t>Smoking is a risk factor for Zenker's diverticulum due to its impact on esophageal health.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Family history of connective tissue diseases</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's is commonly associated with CREST syndrome, making it a strong indicator.</t>
+          <t>Connective tissue diseases are related to CREST syndrome and may indicate a genetic predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>Family history of gastrointestinal structural abnormalities</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of autoimmune diseases in the family suggests a lower likelihood of CREST syndrome.</t>
+          <t>Zenker's diverticulum is a structural abnormality, which may have a familial predisposition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Participation in activities that increase risk of esophageal motility disorders</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Certain lifestyle factors may predispose individuals to esophageal issues seen in CREST syndrome.</t>
+          <t>Type 2 Achalasia involves esophageal motility issues, which may have a familial component.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lifestyle factors contributing to esophageal obstruction</t>
+          <t>No family history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Certain habits may lead to Zenker's diverticulum, which is not typically associated with CREST syndrome.</t>
+          <t>Raynaud's phenomenon is associated with CREST syndrome, not Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes such as sclerodactyly</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These skin changes are characteristic of CREST syndrome and are not typically seen in Zenker's diverticulum.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Halitosis (bad breath)</t>
+          <t>Neck mass</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Halitosis is commonly associated with Zenker's diverticulum due to food stagnation, which is not a feature of CREST syndrome.</t>
+          <t>A palpable mass in the neck region can be due to a Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia with regurgitation of undigested food</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia in CREST syndrome with Type 2 Achalasia is often accompanied by regurgitation, which is less common in Zenker's diverticulum.</t>
+          <t>Visible small blood vessels on the skin are common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Palpable neck mass</t>
+          <t>Halitosis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A palpable neck mass can be felt in cases of Zenker's diverticulum, which is not present in CREST syndrome.</t>
+          <t>Bad breath is often associated with food retention in Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of telangiectasia</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Telangiectasia is a common finding in CREST syndrome and is not associated with Zenker's diverticulum.</t>
+          <t>Calcium deposits under the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coughing or choking during meals</t>
+          <t>Gurgling sounds in the neck</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coughing or choking is more frequently reported in Zenker's diverticulum due to aspiration of retained food.</t>
+          <t>Audible gurgling sounds during swallowing are indicative of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Delayed gastric emptying on physical exam</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Delayed gastric emptying can be observed in patients with esophageal motility disorders like Type 2 Achalasia, which is not typical in Zenker's diverticulum.</t>
+          <t>Episodes of reduced blood flow to the fingers are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Older age of onset</t>
+          <t>Regurgitation of undigested food</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zenker's diverticulum typically presents in older adults, while CREST syndrome can occur at a younger age.</t>
+          <t>Regurgitation of undigested food is more typical of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, while it is not a feature of Zenker's diverticulum.</t>
+          <t>Ulcers on the fingertips are more common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dysphagia primarily for solids</t>
+          <t>Dysphagia localized to the throat</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>In Zenker's diverticulum, dysphagia is often more pronounced for solids, whereas in CREST syndrome, it can affect both solids and liquids.</t>
+          <t>Difficulty swallowing localized to the throat area is common in Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with decreased peristalsis</t>
+          <t>Esophageal manometry showing Type 2 Achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by panesophageal pressurization, which is a hallmark of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Barium swallow study showing a diverticulum at the upper esophagus</t>
+          <t>Barium swallow showing pharyngoesophageal diverticulum</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This finding is specific for Zenker's diverticulum, distinguishing it from achalasia.</t>
+          <t>A pharyngoesophageal diverticulum is characteristic of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Antinuclear antibody (ANA) positivity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elevated LES pressure is a hallmark of achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>ANA positivity is often associated with autoimmune conditions like CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Endoscopic visualization of a pharyngeal diverticulum</t>
+          <t>Endoscopic visualization of diverticulum</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Direct visualization of the diverticulum confirms Zenker's diverticulum diagnosis.</t>
+          <t>Direct visualization of a diverticulum during endoscopy is definitive for Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies</t>
+          <t>Barium swallow showing esophageal dilation without diverticulum</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These antibodies are commonly associated with CREST syndrome, supporting its diagnosis.</t>
+          <t>Esophageal dilation without diverticulum is more indicative of achalasia than Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing normal peristalsis</t>
+          <t>Cricopharyngeal muscle dysfunction on manometry</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal peristalsis is inconsistent with achalasia and supports Zenker's diverticulum.</t>
+          <t>Cricopharyngeal muscle dysfunction is often associated with Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chest X-ray showing esophageal dilation</t>
+          <t>High-resolution esophageal manometry (HREM) showing impaired lower esophageal sphincter (LES) relaxation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dilation of the esophagus is indicative of achalasia, which is more common in CREST syndrome.</t>
+          <t>Impaired LES relaxation is a key feature of achalasia, particularly in the context of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CT scan showing a diverticulum in the hypopharynx</t>
+          <t>Presence of a posterior outpouching on imaging</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Imaging findings of a diverticulum are specific to Zenker's diverticulum.</t>
+          <t>A posterior outpouching at the pharyngoesophageal junction is indicative of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal stasis</t>
+          <t>Esophagogastroduodenoscopy (EGD) showing absence of diverticulum</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stasis in the esophagus is more prevalent in achalasia, supporting CREST syndrome.</t>
+          <t>The absence of a diverticulum on EGD supports achalasia over Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Symptoms of halitosis (bad breath) due to food stagnation</t>
+          <t>Fluoroscopic evidence of food retention in diverticulum</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Halitosis is commonly associated with Zenker's diverticulum due to retained food.</t>
+          <t>Retention of food in a diverticulum seen on fluoroscopy supports Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
